--- a/ContainerHistoryFiltered_sht3.xlsx
+++ b/ContainerHistoryFiltered_sht3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\PoolCleansingPOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2CA333-5443-4B32-8790-EE088ACF48D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D1AF1-BDAC-41D1-8BF0-550E2A27B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="sht1" sheetId="2" r:id="rId1"/>
+    <x:sheet name="sht3" sheetId="5" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -480,6 +481,27 @@
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="G8" sqref="G8"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:selection activeCell="A2" sqref="A2"/>
     </x:sheetView>

--- a/ContainerHistoryFiltered_sht3.xlsx
+++ b/ContainerHistoryFiltered_sht3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\PoolCleansingPOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D1AF1-BDAC-41D1-8BF0-550E2A27B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42833A37-A4E3-494E-AC9D-F67D62A40E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <x:si>
     <x:t>Action</x:t>
   </x:si>
@@ -52,6 +52,9 @@
   </x:si>
   <x:si>
     <x:t>Receiver ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ContainerHistoryRowNumber</x:t>
   </x:si>
   <x:si>
     <x:t>Apply</x:t>
@@ -500,15 +503,27 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:K19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2"/>
+      <x:selection activeCell="C1" sqref="C1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:cols>
+    <x:col min="1" max="1" width="6.089844" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="11.269531" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="10.726562" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="9.453125" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="11.089844" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="18" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="16.542969" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="8" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="10.089844" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10">
+    <x:row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -539,515 +554,572 @@
       <x:c r="J1" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:10">
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
+    </x:row>
+    <x:row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+    </x:row>
+    <x:row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
+    </x:row>
+    <x:row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="n">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+    </x:row>
+    <x:row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+    </x:row>
+    <x:row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="n">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="A3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
+    </x:row>
+    <x:row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <x:c r="A19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="A4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
+      <x:c r="K19" s="0" t="n">
         <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J8" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J12" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J13" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J14" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J15" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J16" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J17" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J18" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J19" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
